--- a/import_recipes.xlsx
+++ b/import_recipes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="96">
   <si>
     <t xml:space="preserve"> CÔNG TY TNHH TƯƠNG LAI</t>
   </si>
@@ -296,7 +296,7 @@
     <t xml:space="preserve">F01:</t>
   </si>
   <si>
-    <t xml:space="preserve">EPDM 5465 </t>
+    <t xml:space="preserve">A01 </t>
   </si>
   <si>
     <t xml:space="preserve">Kg</t>
@@ -444,6 +444,9 @@
   </si>
   <si>
     <t xml:space="preserve">Vnđ/kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EPDM 5465 </t>
   </si>
   <si>
     <t xml:space="preserve">5467C</t>
@@ -1341,9 +1344,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>244440</xdr:colOff>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>199800</xdr:rowOff>
+      <xdr:rowOff>199440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1357,7 +1360,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="222480" y="1695600"/>
-          <a:ext cx="809280" cy="809280"/>
+          <a:ext cx="808920" cy="808920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1383,9 +1386,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>244440</xdr:colOff>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>199800</xdr:rowOff>
+      <xdr:rowOff>199440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1399,7 +1402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="222480" y="1695600"/>
-          <a:ext cx="809280" cy="809280"/>
+          <a:ext cx="808920" cy="808920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1422,10 +1425,10 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
@@ -30006,7 +30009,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7"/>
@@ -30672,7 +30675,7 @@
       </c>
       <c r="B19" s="44"/>
       <c r="C19" s="45" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
@@ -30702,7 +30705,7 @@
       </c>
       <c r="R19" s="26"/>
       <c r="S19" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T19" s="80" t="n">
         <v>73500</v>
